--- a/Test Cases/PredictionTestCases.xlsx
+++ b/Test Cases/PredictionTestCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="74">
   <si>
     <t>OG_OUATER_YEAR</t>
   </si>
@@ -220,6 +220,27 @@
   </si>
   <si>
     <t>Negative Values</t>
+  </si>
+  <si>
+    <t>Testing for  Max Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max length </t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Credit Score</t>
+  </si>
+  <si>
+    <t>Origination UPB</t>
+  </si>
+  <si>
+    <t>UI doesn't allow User to enter</t>
+  </si>
+  <si>
+    <t>Loan Term</t>
   </si>
 </sst>
 </file>
@@ -715,10 +736,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1074,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3104,6 +3126,52 @@
         <v>65</v>
       </c>
     </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
